--- a/assignment2/results/data_new_1.xlsx
+++ b/assignment2/results/data_new_1.xlsx
@@ -8,28 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UAlberta Masters\CMPUT 681 - Distributed Systems\Assigments\2\cmput648\assignment2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC94FEBD-9233-4D03-B0B6-11C882AD2945}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7AE553-C191-46CB-BA94-5914981F1EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="-120" windowWidth="27975" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="-120" windowWidth="27975" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Real times" sheetId="1" r:id="rId1"/>
     <sheet name="Speedup" sheetId="2" r:id="rId2"/>
     <sheet name="RDFA" sheetId="3" r:id="rId3"/>
     <sheet name="Phase by phase" sheetId="4" r:id="rId4"/>
+    <sheet name="Real times of p2p implementatio" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -81,12 +71,24 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -113,27 +115,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -152,6 +136,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -161,24 +154,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,11 +485,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
       <c r="B1" s="1">
         <v>1000000</v>
       </c>
@@ -511,22 +519,22 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>253416</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>5380319</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>11254041</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>22495273</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>47589716</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>100004774</v>
       </c>
     </row>
@@ -534,22 +542,22 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>160120</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2821495</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>5890605.4000000004</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>12395081.6</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>25710360.800000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>52552790.799999997</v>
       </c>
     </row>
@@ -557,22 +565,22 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>107897.60000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1480337.6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>2982102.2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>6229310.2000000002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>12614115</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>26228516.800000001</v>
       </c>
     </row>
@@ -580,22 +588,22 @@
       <c r="A5" s="1">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>70475.399999999994</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>999739.6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2078116.2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>4240949.8</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>8718801.4000000004</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>18135312.199999999</v>
       </c>
     </row>
@@ -603,22 +611,22 @@
       <c r="A6" s="1">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>52805.599999999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>765525.2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>1539234.2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>3212517.4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>6574386</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>13747949.4</v>
       </c>
     </row>
@@ -631,11 +639,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
       <c r="B1" s="1">
         <v>1000000</v>
       </c>
@@ -662,25 +676,25 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -688,25 +702,25 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.5826630027479389</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1.9069036096112171</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1.910506685781397</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1.814854772718882</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>1.8509937052303049</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>1.902939358265251</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>2</v>
       </c>
     </row>
@@ -714,25 +728,25 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.348671332819265</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>3.6345216118269241</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>3.7738616067551272</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>3.611198074547644</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>3.7727352255786468</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>3.8128261221389379</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>4</v>
       </c>
     </row>
@@ -740,25 +754,25 @@
       <c r="A5" s="1">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>3.5958078989264339</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>5.3817203999921581</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>5.4155013083483974</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>5.3043007016965884</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>5.4582865025460947</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>5.514367378798144</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>6</v>
       </c>
     </row>
@@ -766,25 +780,25 @@
       <c r="A6" s="1">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>4.7990364658293823</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>7.0282715709424073</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>7.3114546181471276</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>7.002381683598041</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>7.2386555946060973</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>7.2741593011682166</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>8</v>
       </c>
     </row>
@@ -797,11 +811,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
       <c r="B1" s="1">
         <v>1000000</v>
       </c>
@@ -825,22 +845,22 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1.001952</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1.0000500000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1.0002740000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1.000183</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1.0000290000000001</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>1.000076</v>
       </c>
     </row>
@@ -848,22 +868,22 @@
       <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.0021199999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1.000435</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1.000456</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1.000265</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>1.0003280000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>1.0002139999999999</v>
       </c>
     </row>
@@ -871,22 +891,22 @@
       <c r="A4" s="1">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1.0013879999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1.0006299999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1.0004230000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1.000316</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>1.0001580000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>1.0001549999999999</v>
       </c>
     </row>
@@ -894,22 +914,22 @@
       <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>1.006024</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>1.000653</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>1.000551</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>1.000518</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>1.0003679999999999</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>1.000461</v>
       </c>
     </row>
@@ -920,556 +940,412 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4633315.5999999996</v>
+      </c>
+      <c r="D2" s="2">
+        <v>539320.9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>285167.90000000002</v>
+      </c>
+      <c r="F2" s="4">
+        <v>382570.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9604352.5999999996</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1297084.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>542885</v>
+      </c>
+      <c r="F3" s="4">
+        <v>804009.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>19856650.100000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2761270.4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1124245.8999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1635840.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41202642.200000003</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5783192.4000000004</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2156329.6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3039519.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2152050.1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>336782.05</v>
+      </c>
+      <c r="E6" s="2">
+        <v>148330.85</v>
+      </c>
+      <c r="F6" s="4">
+        <v>278166.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4476894.75</v>
+      </c>
+      <c r="D7" s="2">
+        <v>804162.35</v>
+      </c>
+      <c r="E7" s="2">
+        <v>258451.4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>560335.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9181843.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1578087.55</v>
+      </c>
+      <c r="E8" s="2">
+        <v>470099.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1111563.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>19274292.399999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3100269.35</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1006456.55</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2287936.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1015121.775</v>
+      </c>
+      <c r="D10" s="2">
+        <v>171503.75</v>
+      </c>
+      <c r="E10" s="2">
+        <v>122368.9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>194558.72500000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2099481.0750000002</v>
+      </c>
+      <c r="D11" s="2">
+        <v>381501.82500000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>246190.67499999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>383116.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4396664.4000000004</v>
+      </c>
+      <c r="D12" s="2">
+        <v>769034.97499999998</v>
+      </c>
+      <c r="E12" s="2">
+        <v>466996.17499999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>769437.27500000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>9099588.5749999993</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1762715.55</v>
+      </c>
+      <c r="E13" s="5">
+        <v>946655.125</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1551646.9750000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40345B1-84CA-4647-A44A-07ED7D2CAA14}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C1" s="1">
+        <v>16000000</v>
+      </c>
+      <c r="D1" s="1">
+        <v>32000000</v>
+      </c>
+      <c r="E1" s="1">
+        <v>64000000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>128000000</v>
+      </c>
+      <c r="G1" s="1">
+        <v>256000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2">
+        <v>253416</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5380319</v>
+      </c>
+      <c r="D2" s="2">
+        <v>11254041</v>
+      </c>
+      <c r="E2" s="2">
+        <v>22495273</v>
+      </c>
+      <c r="F2" s="2">
+        <v>47589716</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100004774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" s="2">
+        <v>144050.6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2966080.6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6208999.5999999996</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12829794.4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>26755465</v>
+      </c>
+      <c r="G3" s="4">
+        <v>56313483.399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4633315.5999999996</v>
-      </c>
-      <c r="D2" s="3">
-        <v>539320.9</v>
-      </c>
-      <c r="E2" s="3">
-        <v>285167.90000000002</v>
-      </c>
-      <c r="F2" s="7">
-        <v>382570.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2152050.1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>336782.05</v>
-      </c>
-      <c r="E3" s="3">
-        <v>148330.85</v>
-      </c>
-      <c r="F3" s="7">
-        <v>278166.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
+        <v>121424.8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1711633.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3479471.6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7175873.7999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>14590758</v>
+      </c>
+      <c r="G4" s="4">
+        <v>30402398.199999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>82148.399999999994</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1311284.2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2577739.4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5272121.8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10510418.199999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>21815678.399999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
-        <v>1015121.775</v>
-      </c>
-      <c r="D4" s="3">
-        <v>171503.75</v>
-      </c>
-      <c r="E4" s="3">
-        <v>122368.9</v>
-      </c>
-      <c r="F4" s="7">
-        <v>194558.72500000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>9604352.5999999996</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1297084.5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>542885</v>
-      </c>
-      <c r="F5" s="7">
-        <v>804009.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4476894.75</v>
-      </c>
-      <c r="D6" s="3">
-        <v>804162.35</v>
-      </c>
-      <c r="E6" s="3">
-        <v>258451.4</v>
-      </c>
-      <c r="F6" s="7">
-        <v>560335.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2099481.0750000002</v>
-      </c>
-      <c r="D7" s="3">
-        <v>381501.82500000001</v>
-      </c>
-      <c r="E7" s="3">
-        <v>246190.67499999999</v>
-      </c>
-      <c r="F7" s="7">
-        <v>383116.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>19856650.100000001</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2761270.4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1124245.8999999999</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1635840.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9181843.5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1578087.55</v>
-      </c>
-      <c r="E9" s="3">
-        <v>470099.5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1111563.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4396664.4000000004</v>
-      </c>
-      <c r="D10" s="3">
-        <v>769034.97499999998</v>
-      </c>
-      <c r="E10" s="3">
-        <v>466996.17499999999</v>
-      </c>
-      <c r="F10" s="7">
-        <v>769437.27500000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>41202642.200000003</v>
-      </c>
-      <c r="D11" s="3">
-        <v>5783192.4000000004</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2156329.6</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3039519.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>19274292.399999999</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3100269.35</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1006456.55</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2287936.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9099588.5749999993</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1762715.55</v>
-      </c>
-      <c r="E13" s="4">
-        <v>946655.125</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1551646.9750000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3">
-        <f>C2/1000</f>
-        <v>4633.3155999999999</v>
-      </c>
-      <c r="D21" s="3">
-        <f>D2/1000</f>
-        <v>539.32090000000005</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" ref="E21:F21" si="0">E2/1000</f>
-        <v>285.16790000000003</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>382.57090000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" ref="C22:F22" si="1">C3/1000</f>
-        <v>2152.0500999999999</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="1"/>
-        <v>336.78204999999997</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="1"/>
-        <v>148.33085</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="1"/>
-        <v>278.16604999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" ref="C23:F23" si="2">C4/1000</f>
-        <v>1015.1217750000001</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="2"/>
-        <v>171.50375</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="2"/>
-        <v>122.3689</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="2"/>
-        <v>194.55872500000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" ref="C24:F24" si="3">C5/1000</f>
-        <v>9604.3526000000002</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="3"/>
-        <v>1297.0844999999999</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="3"/>
-        <v>542.88499999999999</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="3"/>
-        <v>804.00990000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" ref="C25:F25" si="4">C6/1000</f>
-        <v>4476.8947500000004</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="4"/>
-        <v>804.16234999999995</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="4"/>
-        <v>258.45139999999998</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="4"/>
-        <v>560.33550000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" ref="C26:F26" si="5">C7/1000</f>
-        <v>2099.4810750000001</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="5"/>
-        <v>381.501825</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="5"/>
-        <v>246.190675</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="5"/>
-        <v>383.11615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" ref="C27:F27" si="6">C8/1000</f>
-        <v>19856.650100000003</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="6"/>
-        <v>2761.2703999999999</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="6"/>
-        <v>1124.2458999999999</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="6"/>
-        <v>1635.8403000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" ref="C28:F28" si="7">C9/1000</f>
-        <v>9181.8435000000009</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="7"/>
-        <v>1578.08755</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="7"/>
-        <v>470.09949999999998</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="7"/>
-        <v>1111.5633</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" ref="C29:F29" si="8">C10/1000</f>
-        <v>4396.6644000000006</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="8"/>
-        <v>769.03497500000003</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="8"/>
-        <v>466.99617499999999</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="8"/>
-        <v>769.437275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" ref="C30:F30" si="9">C11/1000</f>
-        <v>41202.642200000002</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="9"/>
-        <v>5783.1924000000008</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="9"/>
-        <v>2156.3296</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="9"/>
-        <v>3039.5198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" ref="C31:F31" si="10">C12/1000</f>
-        <v>19274.292399999998</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="10"/>
-        <v>3100.26935</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="10"/>
-        <v>1006.45655</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="10"/>
-        <v>2287.9364999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" ref="C32:F32" si="11">C13/1000</f>
-        <v>9099.5885749999998</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="11"/>
-        <v>1762.7155500000001</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="11"/>
-        <v>946.655125</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="11"/>
-        <v>1551.6469750000001</v>
+      <c r="B6" s="5">
+        <v>67420.600000000006</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1129607.3999999999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2129241.6</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4126042.8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8308649.7999999998</v>
+      </c>
+      <c r="G6" s="6">
+        <v>16963781.199999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>